--- a/english/java/developer-guide/charts/advance-chart-since-excel-2016/creating-sunburst-chart/out.xlsx
+++ b/english/java/developer-guide/charts/advance-chart-since-excel-2016/creating-sunburst-chart/out.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Release Doc\Aspose.Cells-Doc-md\english\net\developer-guide\charts\advance-chart-since-excel-2016\creating-sunburst-chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Aspose.Cells-Doc-md\english\java\developer-guide\charts\advance-chart-since-excel-2016\creating-sunburst-chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF7A9A8-D2D9-450A-9707-7F0CA5A115E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="3516" windowWidth="19176" windowHeight="10776" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Quarter</t>
   </si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t>Week 4</t>
-  </si>
-  <si>
-    <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
@@ -110,32 +110,13 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="-122"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="-122"/>
     </font>
     <font>
       <b/>
@@ -143,41 +124,33 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="-122"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
-      <charset val="-122"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
-      <charset val="-122"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
-      <charset val="-122"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,128 +170,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,52 +202,52 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:chartData>
-    <c:data id="0">
-      <c:strDim type="cat">
-        <c:f>Sheet1!$A$2:$C$16</c:f>
-      </c:strDim>
-      <c:numDim type="size">
-        <c:f>Sheet1!$D$2:$D$16</c:f>
-      </c:numDim>
-    </c:data>
-  </c:chartData>
-  <c:chart>
-    <c:title pos="t" align="ctr" overlay="0">
-      <c:tx>
-        <c:txData>
-          <c:v>Sunburst Chart</c:v>
-        </c:txData>
-      </c:tx>
-      <c:spPr>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Sunburst Chart</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:plotAreaRegion>
-        <c:series layoutId="sunburst" uniqueId="{752706E1-C420-4737-9D9E-17FF22C7ABF9}">
-          <c:dataLabels pos="bestFit">
-            <c:visibility seriesName="0" categoryName="1" value="0"/>
-          </c:dataLabels>
-          <c:dataId val="0"/>
-          <c:layoutPr/>
-        </c:series>
-      </c:plotAreaRegion>
-      <c:spPr>
+      </cx:spPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{752706E1-C420-4737-9D9E-17FF22C7ABF9}">
+          <cx:dataLabels pos="bestFit">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:spPr>
         <a:noFill/>
         <a:ln w="12700">
           <a:noFill/>
         </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend pos="t" align="ctr" overlay="0"/>
-  </c:chart>
-</c:chartSpace>
+      </cx:spPr>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,7 +799,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -943,24 +815,24 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame>
+        <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="1" name="Chart 1">
+            <xdr:cNvPr id="2" name="Chart 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{f49cc25c-ac6b-4f04-8848-15f30e1083fa}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49CC25C-AC6B-4F04-8848-15F30E1083FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="4505325" y="857250"/>
-            <a:ext cx="4114800" cy="3429000"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -968,16 +840,16 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1" name="Chart 1"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <xdr:xfrm>
-              <a:off x="4505325" y="857250"/>
-              <a:ext cx="4114800" cy="3429000"/>
-            </xdr:xfrm>
+            <a:xfrm>
+              <a:off x="4046220" y="914400"/>
+              <a:ext cx="3657600" cy="3657600"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -1271,23 +1143,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1303,20 +1175,20 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="13.8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7">
-        <v>3.50</v>
+      <c r="D2" s="2">
+        <v>3.5</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>9</v>
@@ -1324,175 +1196,157 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7">
-        <v>1.20</v>
+      <c r="D3" s="2">
+        <v>1.2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.80</v>
+      <c r="D4" s="2">
+        <v>0.8</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
-        <v>0.60</v>
+      <c r="D5" s="2">
+        <v>0.6</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.50</v>
+      <c r="D6" s="2">
+        <v>0.5</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
-        <v>1.70</v>
+      <c r="D7" s="2">
+        <v>1.7</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>1.1</v>
+      <c r="D8" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
-        <v>0.80</v>
+      <c r="D9" s="2">
+        <v>0.8</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7">
-        <v>0.30</v>
+      <c r="D10" s="2">
+        <v>0.3</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
-        <v>0.70</v>
+      <c r="D11" s="2">
+        <v>0.7</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
-        <v>0.60</v>
+      <c r="D12" s="2">
+        <v>0.6</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
-        <v>0.10</v>
+      <c r="D13" s="2">
+        <v>0.1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7">
-        <v>0.50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.8">
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7">
-        <v>0.40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.8">
+      <c r="D15" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="7">
-        <v>0.30</v>
+      <c r="D16" s="2">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ed586db0-c0bc-4525-803a-49065f7be565}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>